--- a/PLANTILLAS PARA IMPORTACION/CONTABILIDAD/CATALOGO/Catalogo FINAL.xlsx
+++ b/PLANTILLAS PARA IMPORTACION/CONTABILIDAD/CATALOGO/Catalogo FINAL.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$J$488</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$J$488</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$A$1:$J$488</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hoja1!$A$1:$J$499</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$488</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$499</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$488</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$J$485</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$J$485</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$A$1:$J$485</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hoja1!$A$1:$J$485</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$496</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$485</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$496</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$J$485</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2743,23 +2744,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:488"/>
+  <dimension ref="1:485"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="11" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1022" min="18" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1022" min="18" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -43258,52 +43259,123 @@
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
+      <c r="C93" s="0"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="10"/>
+      <c r="G93" s="0"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
+      <c r="A94" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>151.01</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
+      <c r="A95" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>154.01</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
+      <c r="A96" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>153.01</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>151.01</v>
+        <v>152.01</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>196</v>
@@ -43315,7 +43387,7 @@
       <c r="F97" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H97" s="10" t="s">
@@ -43330,13 +43402,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>154.01</v>
+        <v>155.01</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>196</v>
@@ -43363,13 +43435,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="16" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>153.01</v>
+        <v>156.01</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>196</v>
@@ -43395,17 +43467,17 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>202</v>
+      <c r="A100" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>152.01</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>196</v>
+        <v>171.01</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E100" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43414,7 +43486,7 @@
       <c r="F100" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H100" s="10" t="s">
@@ -43428,17 +43500,17 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>204</v>
+      <c r="A101" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>155.01</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>196</v>
+        <v>171.01</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E101" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43461,17 +43533,17 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>206</v>
+      <c r="A102" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>156.01</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>196</v>
+        <v>171.01</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E102" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43495,10 +43567,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C103" s="3" t="n">
         <v>171.01</v>
@@ -43528,10 +43600,10 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C104" s="3" t="n">
         <v>171.01</v>
@@ -43560,30 +43632,30 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>213</v>
+      <c r="A105" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>171.01</v>
+        <v>200</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E105" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F105" s="10" t="s">
-        <v>13</v>
+      <c r="F105" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>14</v>
@@ -43593,30 +43665,30 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>215</v>
+      <c r="A106" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>171.01</v>
+        <v>200</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E106" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F106" s="10" t="s">
-        <v>13</v>
+      <c r="F106" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>14</v>
@@ -43626,30 +43698,30 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>217</v>
+      <c r="A107" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>171.01</v>
+        <v>201</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E107" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F107" s="10" t="s">
-        <v>13</v>
+      <c r="F107" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>14</v>
@@ -43659,17 +43731,17 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>219</v>
+      <c r="A108" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>200</v>
+        <v>201.01</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E108" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43692,17 +43764,17 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>222</v>
+      <c r="A109" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>200</v>
+        <v>201.01</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E109" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43725,17 +43797,17 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>224</v>
+      <c r="A110" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>201</v>
+        <v>201.02</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E110" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43759,13 +43831,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>201.01</v>
+        <v>201.03</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>227</v>
@@ -43792,13 +43864,13 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>201.01</v>
+        <v>201.03</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>227</v>
@@ -43824,17 +43896,17 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>231</v>
+      <c r="A113" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>202.01</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>201.02</v>
+        <v>202</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="E113" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43858,13 +43930,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>201.03</v>
+        <v>202.01</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>227</v>
@@ -43891,13 +43963,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>201.03</v>
+        <v>202.01</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>227</v>
@@ -43923,17 +43995,17 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>202.01</v>
+      <c r="A116" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>202</v>
+        <v>202.02</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E116" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -43957,13 +44029,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>202.01</v>
+        <v>202.02</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>227</v>
@@ -43990,13 +44062,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>202.01</v>
+        <v>202.11</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>227</v>
@@ -44023,10 +44095,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C119" s="3" t="n">
         <v>202.02</v>
@@ -44056,13 +44128,13 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>202.02</v>
+        <v>205.04</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>227</v>
@@ -44088,17 +44160,17 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>246</v>
+      <c r="A121" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>206.01</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>202.11</v>
+        <v>206</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="E121" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44122,16 +44194,16 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>202.02</v>
+        <v>206.01</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="E122" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44155,16 +44227,16 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>205.04</v>
+        <v>206.01</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="E123" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44187,17 +44259,17 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>206.01</v>
+      <c r="A124" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>206</v>
+        <v>206.03</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E124" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44221,13 +44293,13 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>206.01</v>
+        <v>206.03</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>56</v>
@@ -44253,17 +44325,17 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>255</v>
+      <c r="A126" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="15" t="n">
+        <v>208.01</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>206.01</v>
+        <v>208</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E126" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44287,16 +44359,16 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>206.03</v>
+        <v>208.01</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="E127" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44320,16 +44392,16 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>206.03</v>
+        <v>208.02</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="E128" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44353,13 +44425,13 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B129" s="15" t="n">
-        <v>208.01</v>
+        <v>209.01</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>12</v>
@@ -44386,13 +44458,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>208.01</v>
+        <v>209.01</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>263</v>
@@ -44419,13 +44491,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>208.02</v>
+        <v>209.02</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>263</v>
@@ -44452,13 +44524,13 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B132" s="15" t="n">
-        <v>209.01</v>
+        <v>210.01</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>12</v>
@@ -44484,17 +44556,17 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>268</v>
+      <c r="A133" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="15" t="n">
+        <v>211.01</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>209.01</v>
+        <v>211</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="E133" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44518,13 +44590,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>209.02</v>
+        <v>211.01</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>263</v>
@@ -44550,17 +44622,17 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="15" t="n">
-        <v>210.01</v>
+      <c r="A135" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>210</v>
+        <v>211.03</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="E135" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44583,17 +44655,17 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" s="15" t="n">
-        <v>211.01</v>
+      <c r="A136" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>211</v>
+        <v>211.02</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="E136" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -44617,13 +44689,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>211.01</v>
+        <v>212.01</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>263</v>
@@ -44650,13 +44722,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>211.03</v>
+        <v>213.01</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>263</v>
@@ -44683,13 +44755,13 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>211.02</v>
+        <v>213.02</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>263</v>
@@ -44716,13 +44788,13 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>212.01</v>
+        <v>213.03</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>263</v>
@@ -44749,13 +44821,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>213.01</v>
+        <v>215.01</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>263</v>
@@ -44782,13 +44854,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>213.02</v>
+        <v>215.02</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>263</v>
@@ -44815,13 +44887,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C143" s="3" t="n">
-        <v>213.03</v>
+        <v>292</v>
+      </c>
+      <c r="C143" s="17" t="n">
+        <v>216.1</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>263</v>
@@ -44848,13 +44920,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>215.01</v>
+        <v>216.03</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>263</v>
@@ -44881,13 +44953,13 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>215.02</v>
+        <v>216.02</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>263</v>
@@ -44914,13 +44986,13 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" s="17" t="n">
-        <v>216.1</v>
+        <v>298</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>216.05</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>263</v>
@@ -44947,13 +45019,13 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>216.03</v>
+        <v>216.06</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>263</v>
@@ -44980,13 +45052,13 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>216.02</v>
+        <v>216.01</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>263</v>
@@ -45013,13 +45085,13 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>216.05</v>
+        <v>216.04</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>263</v>
@@ -45045,17 +45117,17 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>300</v>
+      <c r="A150" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B150" s="15" t="n">
+        <v>301</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>216.06</v>
+        <v>301</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="E150" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45079,16 +45151,16 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>216.01</v>
+        <v>301.01</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="E151" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45112,16 +45184,16 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>216.04</v>
+        <v>301.02</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="E152" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45144,17 +45216,17 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B153" s="15" t="n">
-        <v>301</v>
+      <c r="A153" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>301</v>
+        <v>301.03</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="E153" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45178,13 +45250,13 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>301.01</v>
+        <v>303.01</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>308</v>
@@ -45210,17 +45282,17 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>310</v>
+      <c r="A155" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" s="15" t="n">
+        <v>304</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>301.02</v>
+        <v>304</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="E155" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45244,16 +45316,16 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>301.03</v>
+        <v>304.01</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E156" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45277,16 +45349,16 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>303.01</v>
+        <v>304.02</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E157" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45310,13 +45382,13 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B158" s="15" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>12</v>
@@ -45343,16 +45415,16 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>317</v>
+        <v>322</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>304.01</v>
+        <v>305.01</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E159" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45376,16 +45448,16 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>304.02</v>
+        <v>305.02</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E160" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45409,16 +45481,16 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B161" s="15" t="n">
-        <v>305</v>
+        <v>327</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>305</v>
+        <v>306.01</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="E161" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45441,17 +45513,17 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>323</v>
+      <c r="A162" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="15" t="n">
+        <v>401</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>305.01</v>
+        <v>400</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="E162" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45475,16 +45547,16 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
+      </c>
+      <c r="B163" s="15" t="n">
+        <v>401.01</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>305.02</v>
+        <v>401</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="E163" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45507,17 +45579,17 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
-        <v>327</v>
+      <c r="A164" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>306.01</v>
+        <v>401.04</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="E164" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45540,17 +45612,17 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B165" s="15" t="n">
-        <v>401</v>
+      <c r="A165" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>400</v>
+        <v>401.04</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="E165" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45573,17 +45645,17 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B166" s="15" t="n">
-        <v>401.01</v>
+      <c r="A166" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>401</v>
+        <v>401.04</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="E166" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45607,10 +45679,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="18" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>401.04</v>
@@ -45640,10 +45712,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="18" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>401.04</v>
@@ -45673,10 +45745,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>401.04</v>
@@ -45706,13 +45778,13 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="18" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>401.04</v>
+        <v>401.01</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>332</v>
@@ -45739,13 +45811,13 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="18" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>401.04</v>
+        <v>401.01</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>332</v>
@@ -45772,13 +45844,13 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="18" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>401.04</v>
+        <v>401.01</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>332</v>
@@ -45805,10 +45877,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>401.01</v>
@@ -45837,30 +45909,30 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>340</v>
+      <c r="A174" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="15" t="n">
+        <v>501</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>401.01</v>
+        <v>501</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="E174" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>220</v>
+      <c r="F174" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I174" s="10" t="s">
         <v>14</v>
@@ -45871,29 +45943,29 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>401.01</v>
+        <v>501.01</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E175" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>220</v>
+      <c r="F175" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H175" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>14</v>
@@ -45904,29 +45976,29 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>401.01</v>
+        <v>501.01</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E176" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>220</v>
+      <c r="F176" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H176" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I176" s="10" t="s">
         <v>14</v>
@@ -45936,17 +46008,17 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B177" s="15" t="n">
-        <v>501</v>
+      <c r="A177" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>501</v>
+        <v>501.01</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="E177" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -45970,10 +46042,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>501.01</v>
@@ -46003,10 +46075,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="18" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>501.01</v>
@@ -46036,10 +46108,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>501.01</v>
@@ -46069,10 +46141,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="18" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>501.01</v>
@@ -46102,10 +46174,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="18" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>501.01</v>
@@ -46135,13 +46207,13 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="18" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>501.01</v>
+        <v>501.08</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>345</v>
@@ -46168,13 +46240,13 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>501.01</v>
+        <v>501.08</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>345</v>
@@ -46200,17 +46272,17 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="18" t="s">
-        <v>135</v>
+      <c r="A185" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>501.01</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>345</v>
+        <v>504.01</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E185" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -46233,17 +46305,17 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="18" t="s">
-        <v>197</v>
+      <c r="A186" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>501.08</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>345</v>
+        <v>504.01</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E186" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -46266,17 +46338,17 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="18" t="s">
-        <v>199</v>
+      <c r="A187" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>501.08</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>345</v>
+        <v>504.01</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E187" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -46300,10 +46372,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>504.01</v>
@@ -46333,10 +46405,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>504.01</v>
@@ -46366,10 +46438,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C190" s="3" t="n">
         <v>504.01</v>
@@ -46399,10 +46471,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C191" s="3" t="n">
         <v>504.01</v>
@@ -46432,10 +46504,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>504.01</v>
@@ -46465,10 +46537,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C193" s="3" t="n">
         <v>504.01</v>
@@ -46498,10 +46570,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C194" s="3" t="n">
         <v>504.01</v>
@@ -46531,10 +46603,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>504.01</v>
@@ -46564,10 +46636,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C196" s="3" t="n">
         <v>504.01</v>
@@ -46597,10 +46669,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C197" s="3" t="n">
         <v>504.01</v>
@@ -46630,10 +46702,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>504.01</v>
@@ -46663,10 +46735,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C199" s="3" t="n">
         <v>504.01</v>
@@ -46696,10 +46768,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C200" s="3" t="n">
         <v>504.01</v>
@@ -46729,10 +46801,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>504.01</v>
@@ -46762,10 +46834,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C202" s="3" t="n">
         <v>504.01</v>
@@ -46795,10 +46867,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C203" s="3" t="n">
         <v>504.01</v>
@@ -46828,10 +46900,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C204" s="3" t="n">
         <v>504.01</v>
@@ -46861,10 +46933,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C205" s="3" t="n">
         <v>504.01</v>
@@ -46894,10 +46966,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C206" s="3" t="n">
         <v>504.01</v>
@@ -46927,10 +46999,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C207" s="3" t="n">
         <v>504.01</v>
@@ -46960,10 +47032,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C208" s="3" t="n">
         <v>504.01</v>
@@ -46993,10 +47065,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C209" s="3" t="n">
         <v>504.01</v>
@@ -47026,10 +47098,10 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C210" s="3" t="n">
         <v>504.01</v>
@@ -47059,10 +47131,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C211" s="3" t="n">
         <v>504.01</v>
@@ -47092,10 +47164,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C212" s="3" t="n">
         <v>504.01</v>
@@ -47125,10 +47197,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C213" s="3" t="n">
         <v>504.01</v>
@@ -47158,10 +47230,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C214" s="3" t="n">
         <v>504.01</v>
@@ -47191,10 +47263,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C215" s="3" t="n">
         <v>504.01</v>
@@ -47224,10 +47296,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C216" s="3" t="n">
         <v>504.01</v>
@@ -47257,10 +47329,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C217" s="3" t="n">
         <v>504.01</v>
@@ -47290,10 +47362,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C218" s="3" t="n">
         <v>504.01</v>
@@ -47323,10 +47395,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C219" s="3" t="n">
         <v>504.01</v>
@@ -47356,10 +47428,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C220" s="3" t="n">
         <v>504.01</v>
@@ -47389,10 +47461,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C221" s="3" t="n">
         <v>504.01</v>
@@ -47422,10 +47494,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C222" s="3" t="n">
         <v>504.01</v>
@@ -47455,10 +47527,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C223" s="3" t="n">
         <v>504.01</v>
@@ -47488,10 +47560,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C224" s="3" t="n">
         <v>504.01</v>
@@ -47521,10 +47593,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C225" s="3" t="n">
         <v>504.01</v>
@@ -47554,10 +47626,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C226" s="3" t="n">
         <v>504.01</v>
@@ -47587,10 +47659,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C227" s="3" t="n">
         <v>504.01</v>
@@ -47620,10 +47692,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="10" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C228" s="3" t="n">
         <v>504.01</v>
@@ -47653,10 +47725,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C229" s="3" t="n">
         <v>504.01</v>
@@ -47686,13 +47758,13 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="10" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C230" s="3" t="n">
-        <v>504.01</v>
+        <v>504.04</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>357</v>
@@ -47719,13 +47791,13 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C231" s="3" t="n">
-        <v>504.01</v>
+        <v>504.04</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>357</v>
@@ -47752,13 +47824,13 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="10" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C232" s="3" t="n">
-        <v>504.01</v>
+        <v>504.04</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>357</v>
@@ -47785,10 +47857,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="10" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C233" s="3" t="n">
         <v>504.04</v>
@@ -47818,10 +47890,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="10" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C234" s="3" t="n">
         <v>504.04</v>
@@ -47851,10 +47923,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="10" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C235" s="3" t="n">
         <v>504.04</v>
@@ -47884,10 +47956,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="10" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C236" s="3" t="n">
         <v>504.04</v>
@@ -47917,10 +47989,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="10" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C237" s="3" t="n">
         <v>504.04</v>
@@ -47950,10 +48022,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="10" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C238" s="3" t="n">
         <v>504.04</v>
@@ -47983,10 +48055,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="10" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C239" s="3" t="n">
         <v>504.04</v>
@@ -48016,10 +48088,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="10" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C240" s="3" t="n">
         <v>504.04</v>
@@ -48049,10 +48121,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="10" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C241" s="3" t="n">
         <v>504.04</v>
@@ -48082,10 +48154,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="10" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C242" s="3" t="n">
         <v>504.04</v>
@@ -48115,10 +48187,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="10" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C243" s="3" t="n">
         <v>504.04</v>
@@ -48148,10 +48220,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="10" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C244" s="3" t="n">
         <v>504.04</v>
@@ -48180,11 +48252,11 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="10" t="s">
-        <v>470</v>
+      <c r="A245" s="8" t="s">
+        <v>476</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C245" s="3" t="n">
         <v>504.04</v>
@@ -48214,10 +48286,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="10" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C246" s="3" t="n">
         <v>504.04</v>
@@ -48247,10 +48319,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="10" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C247" s="3" t="n">
         <v>504.04</v>
@@ -48279,11 +48351,11 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="8" t="s">
-        <v>476</v>
+      <c r="A248" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C248" s="3" t="n">
         <v>504.04</v>
@@ -48313,10 +48385,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="10" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C249" s="3" t="n">
         <v>504.04</v>
@@ -48346,10 +48418,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C250" s="3" t="n">
         <v>504.04</v>
@@ -48379,10 +48451,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="10" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C251" s="3" t="n">
         <v>504.04</v>
@@ -48412,10 +48484,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="10" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C252" s="3" t="n">
         <v>504.04</v>
@@ -48445,10 +48517,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C253" s="3" t="n">
         <v>504.04</v>
@@ -48478,10 +48550,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="10" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C254" s="3" t="n">
         <v>504.04</v>
@@ -48511,10 +48583,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="10" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C255" s="3" t="n">
         <v>504.04</v>
@@ -48544,10 +48616,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="10" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C256" s="3" t="n">
         <v>504.04</v>
@@ -48577,10 +48649,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="10" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C257" s="3" t="n">
         <v>504.04</v>
@@ -48610,10 +48682,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="10" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C258" s="3" t="n">
         <v>504.04</v>
@@ -48643,10 +48715,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="10" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C259" s="3" t="n">
         <v>504.04</v>
@@ -48676,10 +48748,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="10" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C260" s="3" t="n">
         <v>504.04</v>
@@ -48709,10 +48781,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="10" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C261" s="3" t="n">
         <v>504.04</v>
@@ -48742,10 +48814,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="10" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C262" s="3" t="n">
         <v>504.04</v>
@@ -48775,10 +48847,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="10" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C263" s="3" t="n">
         <v>504.04</v>
@@ -48808,10 +48880,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="10" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C264" s="3" t="n">
         <v>504.04</v>
@@ -48841,10 +48913,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="10" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C265" s="3" t="n">
         <v>504.04</v>
@@ -48874,10 +48946,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="10" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C266" s="3" t="n">
         <v>504.04</v>
@@ -48907,10 +48979,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="10" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C267" s="3" t="n">
         <v>504.04</v>
@@ -48940,10 +49012,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="10" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C268" s="3" t="n">
         <v>504.04</v>
@@ -48973,10 +49045,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="10" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C269" s="3" t="n">
         <v>504.04</v>
@@ -49006,10 +49078,10 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="10" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C270" s="3" t="n">
         <v>504.04</v>
@@ -49039,10 +49111,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="10" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C271" s="3" t="n">
         <v>504.04</v>
@@ -49072,10 +49144,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="10" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C272" s="3" t="n">
         <v>504.04</v>
@@ -49105,10 +49177,10 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="10" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C273" s="3" t="n">
         <v>504.04</v>
@@ -49138,16 +49210,16 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="10" t="s">
-        <v>528</v>
+        <v>355</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C274" s="3" t="n">
-        <v>504.04</v>
+        <v>601.01</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>357</v>
+        <v>535</v>
       </c>
       <c r="E274" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -49171,16 +49243,16 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="10" t="s">
-        <v>530</v>
+        <v>362</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C275" s="3" t="n">
-        <v>504.04</v>
+        <v>601.01</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>357</v>
+        <v>535</v>
       </c>
       <c r="E275" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -49204,16 +49276,16 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="10" t="s">
-        <v>532</v>
+        <v>364</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C276" s="3" t="n">
-        <v>504.04</v>
+        <v>601.01</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>357</v>
+        <v>535</v>
       </c>
       <c r="E276" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -49237,10 +49309,10 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="10" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C277" s="3" t="n">
         <v>601.01</v>
@@ -49270,10 +49342,10 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C278" s="3" t="n">
         <v>601.01</v>
@@ -49303,10 +49375,10 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C279" s="3" t="n">
         <v>601.01</v>
@@ -49336,10 +49408,10 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C280" s="3" t="n">
         <v>601.01</v>
@@ -49369,10 +49441,10 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C281" s="3" t="n">
         <v>601.01</v>
@@ -49402,10 +49474,10 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C282" s="3" t="n">
         <v>601.01</v>
@@ -49435,10 +49507,10 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C283" s="3" t="n">
         <v>601.01</v>
@@ -49468,10 +49540,10 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C284" s="3" t="n">
         <v>601.01</v>
@@ -49501,10 +49573,10 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="10" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C285" s="3" t="n">
         <v>601.01</v>
@@ -49534,10 +49606,10 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="10" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C286" s="3" t="n">
         <v>601.01</v>
@@ -49567,10 +49639,10 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C287" s="3" t="n">
         <v>601.01</v>
@@ -49600,10 +49672,10 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="10" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C288" s="3" t="n">
         <v>601.01</v>
@@ -49633,10 +49705,10 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="10" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C289" s="3" t="n">
         <v>601.01</v>
@@ -49666,10 +49738,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="10" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C290" s="3" t="n">
         <v>601.01</v>
@@ -49699,10 +49771,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C291" s="3" t="n">
         <v>601.01</v>
@@ -49732,10 +49804,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C292" s="3" t="n">
         <v>601.01</v>
@@ -49765,10 +49837,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="10" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C293" s="3" t="n">
         <v>601.01</v>
@@ -49798,10 +49870,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C294" s="3" t="n">
         <v>601.01</v>
@@ -49831,10 +49903,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="10" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C295" s="3" t="n">
         <v>601.01</v>
@@ -49864,10 +49936,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C296" s="3" t="n">
         <v>601.01</v>
@@ -49897,10 +49969,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C297" s="3" t="n">
         <v>601.01</v>
@@ -49930,10 +50002,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="10" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C298" s="3" t="n">
         <v>601.01</v>
@@ -49963,10 +50035,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C299" s="3" t="n">
         <v>601.01</v>
@@ -49996,10 +50068,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C300" s="3" t="n">
         <v>601.01</v>
@@ -50029,10 +50101,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C301" s="3" t="n">
         <v>601.01</v>
@@ -50062,10 +50134,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C302" s="3" t="n">
         <v>601.01</v>
@@ -50095,10 +50167,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C303" s="3" t="n">
         <v>601.01</v>
@@ -50128,10 +50200,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C304" s="3" t="n">
         <v>601.01</v>
@@ -50161,10 +50233,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C305" s="3" t="n">
         <v>601.01</v>
@@ -50194,10 +50266,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C306" s="3" t="n">
         <v>601.01</v>
@@ -50227,10 +50299,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C307" s="3" t="n">
         <v>601.01</v>
@@ -50260,10 +50332,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C308" s="3" t="n">
         <v>601.01</v>
@@ -50293,10 +50365,10 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C309" s="3" t="n">
         <v>601.01</v>
@@ -50326,10 +50398,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C310" s="3" t="n">
         <v>601.01</v>
@@ -50359,10 +50431,10 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C311" s="3" t="n">
         <v>601.01</v>
@@ -50392,10 +50464,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C312" s="3" t="n">
         <v>601.01</v>
@@ -50425,10 +50497,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C313" s="3" t="n">
         <v>601.01</v>
@@ -50458,10 +50530,10 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C314" s="3" t="n">
         <v>601.01</v>
@@ -50491,10 +50563,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C315" s="3" t="n">
         <v>601.01</v>
@@ -50524,10 +50596,10 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C316" s="3" t="n">
         <v>601.01</v>
@@ -50557,10 +50629,10 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="10" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C317" s="3" t="n">
         <v>601.01</v>
@@ -50590,10 +50662,10 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C318" s="3" t="n">
         <v>601.01</v>
@@ -50623,13 +50695,13 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="10" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C319" s="3" t="n">
-        <v>601.01</v>
+        <v>601.02</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>535</v>
@@ -50656,13 +50728,13 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="10" t="s">
-        <v>442</v>
+        <v>581</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C320" s="3" t="n">
-        <v>601.01</v>
+        <v>601.02</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>535</v>
@@ -50689,13 +50761,13 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="10" t="s">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C321" s="3" t="n">
-        <v>601.01</v>
+        <v>601.02</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>535</v>
@@ -50722,10 +50794,10 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="10" t="s">
-        <v>456</v>
+        <v>585</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C322" s="3" t="n">
         <v>601.02</v>
@@ -50755,10 +50827,10 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="10" t="s">
-        <v>581</v>
+        <v>460</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C323" s="3" t="n">
         <v>601.02</v>
@@ -50788,10 +50860,10 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="10" t="s">
-        <v>583</v>
+        <v>462</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C324" s="3" t="n">
         <v>601.02</v>
@@ -50821,10 +50893,10 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C325" s="3" t="n">
         <v>601.02</v>
@@ -50854,10 +50926,10 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="10" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C326" s="3" t="n">
         <v>601.02</v>
@@ -50887,10 +50959,10 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="10" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C327" s="3" t="n">
         <v>601.02</v>
@@ -50920,10 +50992,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="10" t="s">
-        <v>589</v>
+        <v>470</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C328" s="3" t="n">
         <v>601.02</v>
@@ -50953,10 +51025,10 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="10" t="s">
-        <v>466</v>
+        <v>594</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C329" s="3" t="n">
         <v>601.02</v>
@@ -50986,10 +51058,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="10" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C330" s="3" t="n">
         <v>601.02</v>
@@ -51019,10 +51091,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="10" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C331" s="3" t="n">
         <v>601.02</v>
@@ -51052,10 +51124,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="10" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C332" s="3" t="n">
         <v>601.02</v>
@@ -51085,10 +51157,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="10" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C333" s="3" t="n">
         <v>601.02</v>
@@ -51118,10 +51190,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C334" s="3" t="n">
         <v>601.02</v>
@@ -51151,10 +51223,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="10" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C335" s="3" t="n">
         <v>601.02</v>
@@ -51184,10 +51256,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="10" t="s">
-        <v>600</v>
+        <v>486</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C336" s="3" t="n">
         <v>601.02</v>
@@ -51217,10 +51289,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="10" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C337" s="3" t="n">
         <v>601.02</v>
@@ -51250,10 +51322,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="10" t="s">
-        <v>603</v>
+        <v>492</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C338" s="3" t="n">
         <v>601.02</v>
@@ -51283,10 +51355,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="10" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C339" s="3" t="n">
         <v>601.02</v>
@@ -51316,10 +51388,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="10" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C340" s="3" t="n">
         <v>601.02</v>
@@ -51349,10 +51421,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="10" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C341" s="3" t="n">
         <v>601.02</v>
@@ -51382,10 +51454,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="10" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C342" s="3" t="n">
         <v>601.02</v>
@@ -51415,10 +51487,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="10" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C343" s="3" t="n">
         <v>601.02</v>
@@ -51448,10 +51520,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="10" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C344" s="3" t="n">
         <v>601.02</v>
@@ -51481,10 +51553,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="10" t="s">
-        <v>500</v>
+        <v>614</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C345" s="3" t="n">
         <v>601.02</v>
@@ -51514,10 +51586,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="10" t="s">
-        <v>502</v>
+        <v>614</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C346" s="3" t="n">
         <v>601.02</v>
@@ -51547,10 +51619,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="10" t="s">
-        <v>506</v>
+        <v>617</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C347" s="3" t="n">
         <v>601.02</v>
@@ -51580,10 +51652,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="10" t="s">
-        <v>614</v>
+        <v>508</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C348" s="3" t="n">
         <v>601.02</v>
@@ -51613,10 +51685,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="10" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C349" s="3" t="n">
         <v>601.02</v>
@@ -51646,10 +51718,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="10" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C350" s="3" t="n">
         <v>601.02</v>
@@ -51679,10 +51751,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="10" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C351" s="3" t="n">
         <v>601.02</v>
@@ -51712,10 +51784,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="10" t="s">
-        <v>620</v>
+        <v>518</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C352" s="3" t="n">
         <v>601.02</v>
@@ -51745,10 +51817,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="10" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C353" s="3" t="n">
         <v>601.02</v>
@@ -51778,10 +51850,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C354" s="3" t="n">
         <v>601.02</v>
@@ -51811,10 +51883,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="10" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C355" s="3" t="n">
         <v>601.02</v>
@@ -51844,10 +51916,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="10" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="C356" s="3" t="n">
         <v>601.02</v>
@@ -51877,10 +51949,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="10" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C357" s="3" t="n">
         <v>601.02</v>
@@ -51910,10 +51982,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="10" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C358" s="3" t="n">
         <v>601.02</v>
@@ -51943,10 +52015,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="10" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C359" s="3" t="n">
         <v>601.02</v>
@@ -51976,10 +52048,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="10" t="s">
-        <v>528</v>
+        <v>638</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C360" s="3" t="n">
         <v>601.02</v>
@@ -52009,10 +52081,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="10" t="s">
-        <v>634</v>
+        <v>530</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C361" s="3" t="n">
         <v>601.02</v>
@@ -52042,16 +52114,16 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="10" t="s">
-        <v>636</v>
+        <v>355</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C362" s="3" t="n">
-        <v>601.02</v>
+        <v>603.01</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>535</v>
+        <v>642</v>
       </c>
       <c r="E362" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -52075,16 +52147,16 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="10" t="s">
-        <v>638</v>
+        <v>362</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C363" s="3" t="n">
-        <v>601.02</v>
+        <v>603.01</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>535</v>
+        <v>642</v>
       </c>
       <c r="E363" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -52108,16 +52180,16 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="10" t="s">
-        <v>530</v>
+        <v>364</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C364" s="3" t="n">
-        <v>601.02</v>
+        <v>603.01</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>535</v>
+        <v>642</v>
       </c>
       <c r="E364" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -52141,10 +52213,10 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="10" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C365" s="3" t="n">
         <v>603.01</v>
@@ -52174,10 +52246,10 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C366" s="3" t="n">
         <v>603.01</v>
@@ -52207,10 +52279,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C367" s="3" t="n">
         <v>603.01</v>
@@ -52240,10 +52312,10 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C368" s="3" t="n">
         <v>603.01</v>
@@ -52273,10 +52345,10 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C369" s="3" t="n">
         <v>603.01</v>
@@ -52306,10 +52378,10 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C370" s="3" t="n">
         <v>603.01</v>
@@ -52339,10 +52411,10 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C371" s="3" t="n">
         <v>603.01</v>
@@ -52372,10 +52444,10 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C372" s="3" t="n">
         <v>603.01</v>
@@ -52405,10 +52477,10 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="10" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C373" s="3" t="n">
         <v>603.01</v>
@@ -52438,10 +52510,10 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="10" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C374" s="3" t="n">
         <v>603.01</v>
@@ -52471,10 +52543,10 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C375" s="3" t="n">
         <v>603.01</v>
@@ -52504,10 +52576,10 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="10" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C376" s="3" t="n">
         <v>603.01</v>
@@ -52537,10 +52609,10 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="10" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C377" s="3" t="n">
         <v>603.01</v>
@@ -52570,10 +52642,10 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="10" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C378" s="3" t="n">
         <v>603.01</v>
@@ -52603,10 +52675,10 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C379" s="3" t="n">
         <v>603.01</v>
@@ -52636,10 +52708,10 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C380" s="3" t="n">
         <v>603.01</v>
@@ -52669,10 +52741,10 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="10" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C381" s="3" t="n">
         <v>603.01</v>
@@ -52702,10 +52774,10 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C382" s="3" t="n">
         <v>603.01</v>
@@ -52735,10 +52807,10 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="10" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C383" s="3" t="n">
         <v>603.01</v>
@@ -52768,10 +52840,10 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C384" s="3" t="n">
         <v>603.01</v>
@@ -52801,10 +52873,10 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C385" s="3" t="n">
         <v>603.01</v>
@@ -52834,10 +52906,10 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="10" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C386" s="3" t="n">
         <v>603.01</v>
@@ -52867,10 +52939,10 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C387" s="3" t="n">
         <v>603.01</v>
@@ -52900,10 +52972,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C388" s="3" t="n">
         <v>603.01</v>
@@ -52933,10 +53005,10 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C389" s="3" t="n">
         <v>603.01</v>
@@ -52966,10 +53038,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C390" s="3" t="n">
         <v>603.01</v>
@@ -52999,10 +53071,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C391" s="3" t="n">
         <v>603.01</v>
@@ -53032,10 +53104,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C392" s="3" t="n">
         <v>603.01</v>
@@ -53065,10 +53137,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C393" s="3" t="n">
         <v>603.01</v>
@@ -53098,10 +53170,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C394" s="3" t="n">
         <v>603.01</v>
@@ -53131,10 +53203,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C395" s="3" t="n">
         <v>603.01</v>
@@ -53164,10 +53236,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C396" s="3" t="n">
         <v>603.01</v>
@@ -53197,10 +53269,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C397" s="3" t="n">
         <v>603.01</v>
@@ -53230,10 +53302,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C398" s="3" t="n">
         <v>603.01</v>
@@ -53263,10 +53335,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C399" s="3" t="n">
         <v>603.01</v>
@@ -53296,10 +53368,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C400" s="3" t="n">
         <v>603.01</v>
@@ -53329,10 +53401,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C401" s="3" t="n">
         <v>603.01</v>
@@ -53362,10 +53434,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C402" s="3" t="n">
         <v>603.01</v>
@@ -53395,10 +53467,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C403" s="3" t="n">
         <v>603.01</v>
@@ -53428,10 +53500,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C404" s="3" t="n">
         <v>603.01</v>
@@ -53461,10 +53533,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="10" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C405" s="3" t="n">
         <v>603.01</v>
@@ -53494,10 +53566,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C406" s="3" t="n">
         <v>603.01</v>
@@ -53530,10 +53602,10 @@
         <v>440</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C407" s="3" t="n">
-        <v>603.01</v>
+        <v>603.02</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>642</v>
@@ -53560,13 +53632,13 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="10" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C408" s="3" t="n">
-        <v>603.01</v>
+        <v>603.02</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>642</v>
@@ -53593,13 +53665,13 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="10" t="s">
-        <v>444</v>
+        <v>689</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C409" s="3" t="n">
-        <v>603.01</v>
+        <v>603.02</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>642</v>
@@ -53626,10 +53698,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="10" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C410" s="3" t="n">
         <v>603.02</v>
@@ -53659,10 +53731,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="10" t="s">
-        <v>452</v>
+        <v>585</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C411" s="3" t="n">
         <v>603.02</v>
@@ -53692,10 +53764,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="10" t="s">
-        <v>689</v>
+        <v>460</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C412" s="3" t="n">
         <v>603.02</v>
@@ -53725,10 +53797,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="10" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C413" s="3" t="n">
         <v>603.02</v>
@@ -53758,10 +53830,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="10" t="s">
-        <v>585</v>
+        <v>470</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C414" s="3" t="n">
         <v>603.02</v>
@@ -53791,10 +53863,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="10" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C415" s="3" t="n">
         <v>603.02</v>
@@ -53824,10 +53896,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="10" t="s">
-        <v>462</v>
+        <v>622</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C416" s="3" t="n">
         <v>603.02</v>
@@ -53857,10 +53929,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="10" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C417" s="3" t="n">
         <v>603.02</v>
@@ -53890,10 +53962,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="10" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C418" s="3" t="n">
         <v>603.02</v>
@@ -53923,10 +53995,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="10" t="s">
-        <v>622</v>
+        <v>486</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C419" s="3" t="n">
         <v>603.02</v>
@@ -53956,10 +54028,10 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="10" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C420" s="3" t="n">
         <v>603.02</v>
@@ -53989,10 +54061,10 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="10" t="s">
-        <v>518</v>
+        <v>702</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C421" s="3" t="n">
         <v>603.02</v>
@@ -54022,10 +54094,10 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="10" t="s">
-        <v>486</v>
+        <v>704</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C422" s="3" t="n">
         <v>603.02</v>
@@ -54055,10 +54127,10 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="10" t="s">
-        <v>496</v>
+        <v>706</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C423" s="3" t="n">
         <v>603.02</v>
@@ -54088,10 +54160,10 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="10" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C424" s="3" t="n">
         <v>603.02</v>
@@ -54121,10 +54193,10 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="10" t="s">
-        <v>704</v>
+        <v>598</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C425" s="3" t="n">
         <v>603.02</v>
@@ -54154,10 +54226,10 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="10" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C426" s="3" t="n">
         <v>603.02</v>
@@ -54187,10 +54259,10 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="10" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C427" s="3" t="n">
         <v>603.02</v>
@@ -54220,10 +54292,10 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="10" t="s">
-        <v>598</v>
+        <v>526</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C428" s="3" t="n">
         <v>603.02</v>
@@ -54253,10 +54325,10 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="10" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C429" s="3" t="n">
         <v>603.02</v>
@@ -54286,10 +54358,10 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="10" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C430" s="3" t="n">
         <v>603.02</v>
@@ -54319,10 +54391,10 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="10" t="s">
-        <v>526</v>
+        <v>450</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C431" s="3" t="n">
         <v>603.02</v>
@@ -54352,10 +54424,10 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="10" t="s">
-        <v>716</v>
+        <v>508</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C432" s="3" t="n">
         <v>603.02</v>
@@ -54385,10 +54457,10 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="10" t="s">
-        <v>718</v>
+        <v>498</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C433" s="3" t="n">
         <v>603.02</v>
@@ -54418,10 +54490,10 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="10" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C434" s="3" t="n">
         <v>603.02</v>
@@ -54449,12 +54521,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="10" t="s">
-        <v>508</v>
+        <v>638</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C435" s="3" t="n">
         <v>603.02</v>
@@ -54482,12 +54554,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="10" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C436" s="3" t="n">
         <v>603.02</v>
@@ -54515,12 +54587,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="10" t="s">
-        <v>506</v>
+        <v>726</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C437" s="3" t="n">
         <v>603.02</v>
@@ -54550,10 +54622,10 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="10" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C438" s="3" t="n">
         <v>603.02</v>
@@ -54583,10 +54655,10 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="10" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C439" s="3" t="n">
         <v>603.02</v>
@@ -54616,10 +54688,10 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="10" t="s">
-        <v>726</v>
+        <v>492</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C440" s="3" t="n">
         <v>603.02</v>
@@ -54649,10 +54721,10 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="10" t="s">
-        <v>728</v>
+        <v>494</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C441" s="3" t="n">
         <v>603.02</v>
@@ -54682,10 +54754,10 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="10" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C442" s="3" t="n">
         <v>603.02</v>
@@ -54715,10 +54787,10 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="10" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C443" s="3" t="n">
         <v>603.02</v>
@@ -54748,10 +54820,10 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="10" t="s">
-        <v>494</v>
+        <v>735</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C444" s="3" t="n">
         <v>603.02</v>
@@ -54781,10 +54853,10 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="10" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C445" s="3" t="n">
         <v>603.02</v>
@@ -54814,10 +54886,10 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="10" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C446" s="3" t="n">
         <v>603.02</v>
@@ -54847,10 +54919,10 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="10" t="s">
-        <v>735</v>
+        <v>614</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C447" s="3" t="n">
         <v>603.02</v>
@@ -54879,23 +54951,23 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B448" s="15" t="s">
-        <v>737</v>
+      <c r="A448" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B448" s="15" t="n">
+        <v>701.05</v>
       </c>
       <c r="C448" s="3" t="n">
-        <v>603.02</v>
+        <v>701.05</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>642</v>
+        <v>12</v>
       </c>
       <c r="E448" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F448" s="10" t="s">
+      <c r="F448" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G448" s="1" t="s">
@@ -54913,22 +54985,22 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="10" t="s">
-        <v>466</v>
+        <v>741</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C449" s="3" t="n">
-        <v>603.02</v>
+        <v>701.01</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="E449" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F449" s="10" t="s">
+      <c r="F449" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G449" s="1" t="s">
@@ -54946,22 +55018,22 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="10" t="s">
-        <v>614</v>
+        <v>744</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C450" s="3" t="n">
-        <v>603.02</v>
+        <v>701.01</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="E450" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F450" s="10" t="s">
+      <c r="F450" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G450" s="1" t="s">
@@ -54978,17 +55050,17 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="B451" s="15" t="n">
-        <v>701.05</v>
+      <c r="A451" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B451" s="15" t="s">
+        <v>747</v>
       </c>
       <c r="C451" s="3" t="n">
-        <v>701.05</v>
+        <v>701.01</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>12</v>
+        <v>743</v>
       </c>
       <c r="E451" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55012,10 +55084,10 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="10" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C452" s="3" t="n">
         <v>701.01</v>
@@ -55045,10 +55117,10 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="10" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C453" s="3" t="n">
         <v>701.01</v>
@@ -55078,10 +55150,10 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="10" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C454" s="3" t="n">
         <v>701.01</v>
@@ -55111,10 +55183,10 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="10" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C455" s="3" t="n">
         <v>701.01</v>
@@ -55144,10 +55216,10 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="10" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C456" s="3" t="n">
         <v>701.01</v>
@@ -55177,10 +55249,10 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="10" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C457" s="3" t="n">
         <v>701.01</v>
@@ -55210,10 +55282,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="10" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C458" s="3" t="n">
         <v>701.01</v>
@@ -55243,10 +55315,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="10" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B459" s="15" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C459" s="3" t="n">
         <v>701.01</v>
@@ -55275,17 +55347,17 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="B460" s="15" t="s">
-        <v>759</v>
+      <c r="A460" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B460" s="15" t="n">
+        <v>702.06</v>
       </c>
       <c r="C460" s="3" t="n">
-        <v>701.01</v>
+        <v>702</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>743</v>
+        <v>12</v>
       </c>
       <c r="E460" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55309,13 +55381,13 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="10" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C461" s="3" t="n">
-        <v>701.01</v>
+        <v>702.01</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>743</v>
@@ -55342,13 +55414,13 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="10" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C462" s="3" t="n">
-        <v>701.01</v>
+        <v>702.01</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>743</v>
@@ -55374,17 +55446,17 @@
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="B463" s="15" t="n">
-        <v>702.06</v>
+      <c r="A463" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B463" s="15" t="s">
+        <v>770</v>
       </c>
       <c r="C463" s="3" t="n">
-        <v>702</v>
+        <v>702.01</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>12</v>
+        <v>743</v>
       </c>
       <c r="E463" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55408,10 +55480,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="10" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C464" s="3" t="n">
         <v>702.01</v>
@@ -55441,10 +55513,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="10" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C465" s="3" t="n">
         <v>702.01</v>
@@ -55474,10 +55546,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="10" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C466" s="3" t="n">
         <v>702.01</v>
@@ -55507,10 +55579,10 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="10" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B467" s="15" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C467" s="3" t="n">
         <v>702.01</v>
@@ -55540,10 +55612,10 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="10" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B468" s="15" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C468" s="3" t="n">
         <v>702.01</v>
@@ -55573,10 +55645,10 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="10" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C469" s="3" t="n">
         <v>702.01</v>
@@ -55606,10 +55678,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="10" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C470" s="3" t="n">
         <v>702.01</v>
@@ -55638,17 +55710,17 @@
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="B471" s="15" t="s">
-        <v>780</v>
+      <c r="A471" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B471" s="15" t="n">
+        <v>703.07</v>
       </c>
       <c r="C471" s="3" t="n">
-        <v>702.01</v>
+        <v>703</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>743</v>
+        <v>12</v>
       </c>
       <c r="E471" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55672,16 +55744,16 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="10" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C472" s="3" t="n">
-        <v>702.01</v>
+        <v>703.01</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>743</v>
+        <v>788</v>
       </c>
       <c r="E472" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55705,16 +55777,16 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="10" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C473" s="3" t="n">
-        <v>702.01</v>
+        <v>703.01</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>743</v>
+        <v>788</v>
       </c>
       <c r="E473" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55737,17 +55809,17 @@
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="B474" s="15" t="n">
-        <v>703.07</v>
+      <c r="A474" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B474" s="15" t="s">
+        <v>792</v>
       </c>
       <c r="C474" s="3" t="n">
-        <v>703</v>
+        <v>703.01</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>12</v>
+        <v>788</v>
       </c>
       <c r="E474" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55771,10 +55843,10 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="10" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C475" s="3" t="n">
         <v>703.01</v>
@@ -55804,10 +55876,10 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="10" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B476" s="15" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C476" s="3" t="n">
         <v>703.01</v>
@@ -55837,10 +55909,10 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="10" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B477" s="15" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C477" s="3" t="n">
         <v>703.01</v>
@@ -55869,17 +55941,17 @@
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="B478" s="15" t="s">
-        <v>794</v>
+      <c r="A478" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B478" s="15" t="n">
+        <v>704.08</v>
       </c>
       <c r="C478" s="3" t="n">
-        <v>703.01</v>
+        <v>704.08</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>788</v>
+        <v>12</v>
       </c>
       <c r="E478" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -55903,13 +55975,13 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="10" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B479" s="15" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C479" s="3" t="n">
-        <v>703.01</v>
+        <v>704.08</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>788</v>
@@ -55936,13 +56008,13 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="10" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B480" s="15" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C480" s="3" t="n">
-        <v>703.01</v>
+        <v>704.08</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>788</v>
@@ -55968,17 +56040,17 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="B481" s="15" t="n">
-        <v>704.08</v>
+      <c r="A481" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B481" s="15" t="s">
+        <v>805</v>
       </c>
       <c r="C481" s="3" t="n">
         <v>704.08</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>12</v>
+        <v>788</v>
       </c>
       <c r="E481" s="11" t="n">
         <f aca="false">TRUE()</f>
@@ -56002,10 +56074,10 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="10" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B482" s="15" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C482" s="3" t="n">
         <v>704.08</v>
@@ -56035,10 +56107,10 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="10" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B483" s="15" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C483" s="3" t="n">
         <v>704.08</v>
@@ -56068,10 +56140,10 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="10" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B484" s="15" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C484" s="3" t="n">
         <v>704.08</v>
@@ -56101,10 +56173,10 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="10" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B485" s="15" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C485" s="3" t="n">
         <v>704.08</v>
@@ -56132,107 +56204,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="B486" s="15" t="s">
-        <v>809</v>
-      </c>
-      <c r="C486" s="3" t="n">
-        <v>704.08</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E486" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G486" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H486" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I486" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J486" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="B487" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="C487" s="3" t="n">
-        <v>704.08</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E487" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G487" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H487" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I487" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J487" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="B488" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="C488" s="3" t="n">
-        <v>704.08</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E488" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G488" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H488" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I488" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J488" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J488"/>
+  <autoFilter ref="A1:J485"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
